--- a/Code/Results/Cases/Case_5_214/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_214/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.03039645154056</v>
+        <v>1.059843338016958</v>
       </c>
       <c r="D2">
-        <v>1.041648530211703</v>
+        <v>1.057488595582969</v>
       </c>
       <c r="E2">
-        <v>1.038980066986588</v>
+        <v>1.064954358630998</v>
       </c>
       <c r="F2">
-        <v>1.042862977473462</v>
+        <v>1.074008256550537</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059905093463365</v>
+        <v>1.051316569052303</v>
       </c>
       <c r="J2">
-        <v>1.051704521781316</v>
+        <v>1.064827267394267</v>
       </c>
       <c r="K2">
-        <v>1.052556597052648</v>
+        <v>1.060223427134904</v>
       </c>
       <c r="L2">
-        <v>1.049921799421254</v>
+        <v>1.067668902807052</v>
       </c>
       <c r="M2">
-        <v>1.053755793864253</v>
+        <v>1.076698606907402</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.036756544656981</v>
+        <v>1.061114870383562</v>
       </c>
       <c r="D3">
-        <v>1.046477676023528</v>
+        <v>1.05845684050984</v>
       </c>
       <c r="E3">
-        <v>1.044622786287972</v>
+        <v>1.06612946171137</v>
       </c>
       <c r="F3">
-        <v>1.049209933056126</v>
+        <v>1.075354904110726</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062514235656357</v>
+        <v>1.051749249178972</v>
       </c>
       <c r="J3">
-        <v>1.056292985244357</v>
+        <v>1.065750676083209</v>
       </c>
       <c r="K3">
-        <v>1.05654849585598</v>
+        <v>1.061005126035141</v>
       </c>
       <c r="L3">
-        <v>1.054714853968665</v>
+        <v>1.068658410990062</v>
       </c>
       <c r="M3">
-        <v>1.059249623495372</v>
+        <v>1.077860996936937</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.04076351918622</v>
+        <v>1.06193697830824</v>
       </c>
       <c r="D4">
-        <v>1.049521988596833</v>
+        <v>1.059082677099288</v>
       </c>
       <c r="E4">
-        <v>1.048182645200004</v>
+        <v>1.066889439369922</v>
       </c>
       <c r="F4">
-        <v>1.053216117632808</v>
+        <v>1.076226201130028</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064146228055801</v>
+        <v>1.052027541051118</v>
       </c>
       <c r="J4">
-        <v>1.059178999307433</v>
+        <v>1.066347004910497</v>
       </c>
       <c r="K4">
-        <v>1.059057323529332</v>
+        <v>1.061509636208021</v>
       </c>
       <c r="L4">
-        <v>1.057732350690606</v>
+        <v>1.069297718326627</v>
       </c>
       <c r="M4">
-        <v>1.062712048065306</v>
+        <v>1.078612520720357</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.042423337916979</v>
+        <v>1.062282438033622</v>
       </c>
       <c r="D5">
-        <v>1.050783415160588</v>
+        <v>1.059345617109902</v>
       </c>
       <c r="E5">
-        <v>1.049658361387204</v>
+        <v>1.067208842431638</v>
       </c>
       <c r="F5">
-        <v>1.054877367460308</v>
+        <v>1.076592479655904</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064819372888597</v>
+        <v>1.052144133647642</v>
       </c>
       <c r="J5">
-        <v>1.060373282978868</v>
+        <v>1.066597421605677</v>
       </c>
       <c r="K5">
-        <v>1.060095034963739</v>
+        <v>1.061721422496387</v>
       </c>
       <c r="L5">
-        <v>1.058981715931896</v>
+        <v>1.069566253022882</v>
       </c>
       <c r="M5">
-        <v>1.064146543538517</v>
+        <v>1.0789283154603</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.042700614162533</v>
+        <v>1.062340433278001</v>
       </c>
       <c r="D6">
-        <v>1.050994159058915</v>
+        <v>1.059389756463154</v>
       </c>
       <c r="E6">
-        <v>1.049904946491572</v>
+        <v>1.067262466313841</v>
       </c>
       <c r="F6">
-        <v>1.055154985112499</v>
+        <v>1.076653978654047</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064931652583145</v>
+        <v>1.052163686558266</v>
       </c>
       <c r="J6">
-        <v>1.060572718956638</v>
+        <v>1.066639451317128</v>
       </c>
       <c r="K6">
-        <v>1.060268295620384</v>
+        <v>1.061756964230511</v>
       </c>
       <c r="L6">
-        <v>1.059190389605002</v>
+        <v>1.069611327751986</v>
       </c>
       <c r="M6">
-        <v>1.064386192353916</v>
+        <v>1.078981330310139</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.040785793289486</v>
+        <v>1.061941594960865</v>
       </c>
       <c r="D7">
-        <v>1.049538915052829</v>
+        <v>1.05908619114977</v>
       </c>
       <c r="E7">
-        <v>1.048202444411221</v>
+        <v>1.066893707605931</v>
       </c>
       <c r="F7">
-        <v>1.053238404034471</v>
+        <v>1.07623109541583</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064155272836312</v>
+        <v>1.05202910054253</v>
       </c>
       <c r="J7">
-        <v>1.059195030908236</v>
+        <v>1.066350352087946</v>
       </c>
       <c r="K7">
-        <v>1.059071255306552</v>
+        <v>1.061512467321866</v>
       </c>
       <c r="L7">
-        <v>1.057749119027059</v>
+        <v>1.069301307401735</v>
       </c>
       <c r="M7">
-        <v>1.062731297499639</v>
+        <v>1.078616740954963</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.032569104441676</v>
+        <v>1.060273196622991</v>
       </c>
       <c r="D8">
-        <v>1.043297762104195</v>
+        <v>1.057815960874312</v>
       </c>
       <c r="E8">
-        <v>1.040906605372786</v>
+        <v>1.06535157298568</v>
       </c>
       <c r="F8">
-        <v>1.045029541695409</v>
+        <v>1.074463379512884</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060798854908275</v>
+        <v>1.051463144105224</v>
       </c>
       <c r="J8">
-        <v>1.053272956263644</v>
+        <v>1.0651395829654</v>
       </c>
       <c r="K8">
-        <v>1.053921517968324</v>
+        <v>1.060487876428536</v>
       </c>
       <c r="L8">
-        <v>1.051559576768553</v>
+        <v>1.068003514067316</v>
       </c>
       <c r="M8">
-        <v>1.055632242110969</v>
+        <v>1.077091572086987</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.017198839513468</v>
+        <v>1.057328077904753</v>
       </c>
       <c r="D9">
-        <v>1.031641682310856</v>
+        <v>1.055572346752933</v>
       </c>
       <c r="E9">
-        <v>1.027300745127886</v>
+        <v>1.062631017901788</v>
       </c>
       <c r="F9">
-        <v>1.029736263579963</v>
+        <v>1.071347737967044</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054427188677806</v>
+        <v>1.050452929421842</v>
       </c>
       <c r="J9">
-        <v>1.042158545986642</v>
+        <v>1.062996931572489</v>
       </c>
       <c r="K9">
-        <v>1.044241438392735</v>
+        <v>1.058672371640558</v>
       </c>
       <c r="L9">
-        <v>1.039965888336195</v>
+        <v>1.065709100971358</v>
       </c>
       <c r="M9">
-        <v>1.042364634374522</v>
+        <v>1.074399160397426</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006258653725947</v>
+        <v>1.055360974121484</v>
       </c>
       <c r="D10">
-        <v>1.023363589352107</v>
+        <v>1.054072925017169</v>
       </c>
       <c r="E10">
-        <v>1.017649259158518</v>
+        <v>1.060815063024425</v>
       </c>
       <c r="F10">
-        <v>1.018896426165713</v>
+        <v>1.069269983939147</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049831862164005</v>
+        <v>1.049770687611688</v>
       </c>
       <c r="J10">
-        <v>1.034226137990453</v>
+        <v>1.061562227159309</v>
       </c>
       <c r="K10">
-        <v>1.03732344231523</v>
+        <v>1.057455170018462</v>
       </c>
       <c r="L10">
-        <v>1.031706998626001</v>
+        <v>1.064174281820859</v>
       </c>
       <c r="M10">
-        <v>1.032932680559927</v>
+        <v>1.072600777576274</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001333031473733</v>
+        <v>1.05450827505</v>
       </c>
       <c r="D11">
-        <v>1.019642317475675</v>
+        <v>1.053422760687493</v>
       </c>
       <c r="E11">
-        <v>1.01331274933329</v>
+        <v>1.06002816511083</v>
       </c>
       <c r="F11">
-        <v>1.014027599546943</v>
+        <v>1.068370094349854</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047749400287667</v>
+        <v>1.049473173482858</v>
       </c>
       <c r="J11">
-        <v>1.030650459735034</v>
+        <v>1.060939465915978</v>
       </c>
       <c r="K11">
-        <v>1.034203077581572</v>
+        <v>1.056926454525801</v>
       </c>
       <c r="L11">
-        <v>1.027987899105606</v>
+        <v>1.063508419673575</v>
       </c>
       <c r="M11">
-        <v>1.028689737277626</v>
+        <v>1.07182120363285</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9994728192033092</v>
+        <v>1.054191400859504</v>
       </c>
       <c r="D12">
-        <v>1.018237943149519</v>
+        <v>1.053181122469866</v>
       </c>
       <c r="E12">
-        <v>1.011676462219408</v>
+        <v>1.059735786291482</v>
       </c>
       <c r="F12">
-        <v>1.012190657641982</v>
+        <v>1.068035800214284</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04696098136933</v>
+        <v>1.049362346626016</v>
       </c>
       <c r="J12">
-        <v>1.029299507037193</v>
+        <v>1.060707912804527</v>
       </c>
       <c r="K12">
-        <v>1.033023880075165</v>
+        <v>1.056729814501057</v>
       </c>
       <c r="L12">
-        <v>1.026583327293781</v>
+        <v>1.063260894317549</v>
       </c>
       <c r="M12">
-        <v>1.02708797224898</v>
+        <v>1.071531502242106</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9998732662990841</v>
+        <v>1.054259378020875</v>
       </c>
       <c r="D13">
-        <v>1.018540214695606</v>
+        <v>1.053232960980351</v>
       </c>
       <c r="E13">
-        <v>1.012028638228638</v>
+        <v>1.059798506659345</v>
       </c>
       <c r="F13">
-        <v>1.012586011833945</v>
+        <v>1.068107509088996</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047130791034913</v>
+        <v>1.049386133726242</v>
       </c>
       <c r="J13">
-        <v>1.029590350029291</v>
+        <v>1.06075759226973</v>
       </c>
       <c r="K13">
-        <v>1.033277758156268</v>
+        <v>1.056772005873751</v>
       </c>
       <c r="L13">
-        <v>1.026885688072572</v>
+        <v>1.06331399819526</v>
       </c>
       <c r="M13">
-        <v>1.027432753839406</v>
+        <v>1.071593650242806</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001179904545535</v>
+        <v>1.054482085087259</v>
       </c>
       <c r="D14">
-        <v>1.019526692571483</v>
+        <v>1.053402789630371</v>
       </c>
       <c r="E14">
-        <v>1.013178025364232</v>
+        <v>1.060003998838502</v>
       </c>
       <c r="F14">
-        <v>1.013876350750502</v>
+        <v>1.068342462229673</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047684539324428</v>
+        <v>1.049464018973031</v>
       </c>
       <c r="J14">
-        <v>1.030539264385947</v>
+        <v>1.060920330409481</v>
       </c>
       <c r="K14">
-        <v>1.03410602454439</v>
+        <v>1.056910205344775</v>
       </c>
       <c r="L14">
-        <v>1.027872278874162</v>
+        <v>1.063487963135148</v>
       </c>
       <c r="M14">
-        <v>1.028557871717258</v>
+        <v>1.071797259556504</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001980837252828</v>
+        <v>1.054619283086457</v>
       </c>
       <c r="D15">
-        <v>1.020131511975809</v>
+        <v>1.053507408280012</v>
       </c>
       <c r="E15">
-        <v>1.013882760365315</v>
+        <v>1.060130597345738</v>
       </c>
       <c r="F15">
-        <v>1.014667534402011</v>
+        <v>1.068487219853426</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048023716465194</v>
+        <v>1.04951196461108</v>
       </c>
       <c r="J15">
-        <v>1.031120851008786</v>
+        <v>1.061020567941766</v>
       </c>
       <c r="K15">
-        <v>1.034613631587774</v>
+        <v>1.056995321198873</v>
       </c>
       <c r="L15">
-        <v>1.028477032152756</v>
+        <v>1.063595122815064</v>
       </c>
       <c r="M15">
-        <v>1.029247622509175</v>
+        <v>1.071922692260883</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006581389569219</v>
+        <v>1.055417545008493</v>
       </c>
       <c r="D16">
-        <v>1.023607544926886</v>
+        <v>1.054116055023059</v>
       </c>
       <c r="E16">
-        <v>1.01793358833601</v>
+        <v>1.060867274413096</v>
       </c>
       <c r="F16">
-        <v>1.01921568776373</v>
+        <v>1.069329701935845</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049968034905912</v>
+        <v>1.049790388292821</v>
       </c>
       <c r="J16">
-        <v>1.034460341227077</v>
+        <v>1.06160352541008</v>
       </c>
       <c r="K16">
-        <v>1.037527784437196</v>
+        <v>1.057490223973507</v>
       </c>
       <c r="L16">
-        <v>1.03195067387637</v>
+        <v>1.064218445781365</v>
       </c>
       <c r="M16">
-        <v>1.033210767907299</v>
+        <v>1.072652496876571</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009415190887488</v>
+        <v>1.055918021743466</v>
       </c>
       <c r="D17">
-        <v>1.025750281475269</v>
+        <v>1.054497599179297</v>
       </c>
       <c r="E17">
-        <v>1.020431176054669</v>
+        <v>1.061329215657172</v>
       </c>
       <c r="F17">
-        <v>1.022020305979561</v>
+        <v>1.069858110242154</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051162188527034</v>
+        <v>1.049964473097653</v>
       </c>
       <c r="J17">
-        <v>1.036516304120711</v>
+        <v>1.061968789047269</v>
       </c>
       <c r="K17">
-        <v>1.03932139224958</v>
+        <v>1.057800217598442</v>
       </c>
       <c r="L17">
-        <v>1.034090211406888</v>
+        <v>1.064609096322195</v>
       </c>
       <c r="M17">
-        <v>1.035652949667084</v>
+        <v>1.073110050792981</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011050084885956</v>
+        <v>1.056209851884328</v>
       </c>
       <c r="D18">
-        <v>1.026987018757024</v>
+        <v>1.05472006028493</v>
       </c>
       <c r="E18">
-        <v>1.021872931096983</v>
+        <v>1.06159860266589</v>
       </c>
       <c r="F18">
-        <v>1.023639452965664</v>
+        <v>1.070166302017517</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051849849682411</v>
+        <v>1.050065811407155</v>
       </c>
       <c r="J18">
-        <v>1.037702036437418</v>
+        <v>1.062181694218565</v>
       </c>
       <c r="K18">
-        <v>1.040355631559446</v>
+        <v>1.057980871705877</v>
       </c>
       <c r="L18">
-        <v>1.035324496079975</v>
+        <v>1.064836833320464</v>
       </c>
       <c r="M18">
-        <v>1.037062244024785</v>
+        <v>1.073376851279343</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011604551918484</v>
+        <v>1.056309343366603</v>
       </c>
       <c r="D19">
-        <v>1.027406539987268</v>
+        <v>1.054795899060567</v>
       </c>
       <c r="E19">
-        <v>1.022362034024384</v>
+        <v>1.061690447354272</v>
       </c>
       <c r="F19">
-        <v>1.024188762145619</v>
+        <v>1.070271384194959</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052082848197734</v>
+        <v>1.050100330865074</v>
       </c>
       <c r="J19">
-        <v>1.038104101137272</v>
+        <v>1.062254264541904</v>
       </c>
       <c r="K19">
-        <v>1.040706295069971</v>
+        <v>1.058042443029687</v>
       </c>
       <c r="L19">
-        <v>1.035743083838301</v>
+        <v>1.064914465000926</v>
       </c>
       <c r="M19">
-        <v>1.037540254616921</v>
+        <v>1.073467809378155</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009113029995101</v>
+        <v>1.055864334611333</v>
       </c>
       <c r="D20">
-        <v>1.025521750388858</v>
+        <v>1.054456672133725</v>
       </c>
       <c r="E20">
-        <v>1.020164777677775</v>
+        <v>1.061279659498365</v>
       </c>
       <c r="F20">
-        <v>1.021721143125496</v>
+        <v>1.069801419113466</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051034991197773</v>
+        <v>1.049945816393657</v>
       </c>
       <c r="J20">
-        <v>1.036297123802257</v>
+        <v>1.06192961493448</v>
       </c>
       <c r="K20">
-        <v>1.039130199954075</v>
+        <v>1.057766974775885</v>
       </c>
       <c r="L20">
-        <v>1.033862084784511</v>
+        <v>1.064567195945603</v>
       </c>
       <c r="M20">
-        <v>1.035392510705898</v>
+        <v>1.07306096819575</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000795997099736</v>
+        <v>1.054416507408871</v>
       </c>
       <c r="D21">
-        <v>1.019236823766964</v>
+        <v>1.053352783160342</v>
       </c>
       <c r="E21">
-        <v>1.012840279878602</v>
+        <v>1.059943489020393</v>
       </c>
       <c r="F21">
-        <v>1.01349718157127</v>
+        <v>1.068273275384354</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047521893958649</v>
+        <v>1.049441092468312</v>
       </c>
       <c r="J21">
-        <v>1.030260475659718</v>
+        <v>1.060872414506236</v>
       </c>
       <c r="K21">
-        <v>1.033862689126952</v>
+        <v>1.056869516007457</v>
       </c>
       <c r="L21">
-        <v>1.027582405247802</v>
+        <v>1.063436740189035</v>
       </c>
       <c r="M21">
-        <v>1.028227279423751</v>
+        <v>1.071737305384714</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9953882755089437</v>
+        <v>1.05350536705057</v>
       </c>
       <c r="D22">
-        <v>1.015156305976542</v>
+        <v>1.052657923405978</v>
       </c>
       <c r="E22">
-        <v>1.008086378883064</v>
+        <v>1.059102863924543</v>
       </c>
       <c r="F22">
-        <v>1.008160655891481</v>
+        <v>1.067312265963712</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045226299346379</v>
+        <v>1.049121918476127</v>
       </c>
       <c r="J22">
-        <v>1.026332224759332</v>
+        <v>1.060206367797923</v>
       </c>
       <c r="K22">
-        <v>1.030433376432808</v>
+        <v>1.05630379153409</v>
       </c>
       <c r="L22">
-        <v>1.023499327250714</v>
+        <v>1.062724850983606</v>
       </c>
       <c r="M22">
-        <v>1.023572163734744</v>
+        <v>1.070904295343448</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.998272765896284</v>
+        <v>1.053988460194385</v>
       </c>
       <c r="D23">
-        <v>1.017332258517016</v>
+        <v>1.053026358398878</v>
       </c>
       <c r="E23">
-        <v>1.010621286622996</v>
+        <v>1.059548545693479</v>
       </c>
       <c r="F23">
-        <v>1.011006139802808</v>
+        <v>1.067821735914489</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046451817817388</v>
+        <v>1.049291293002798</v>
       </c>
       <c r="J23">
-        <v>1.028427837745437</v>
+        <v>1.060559579975782</v>
       </c>
       <c r="K23">
-        <v>1.032262958536743</v>
+        <v>1.056603831606476</v>
       </c>
       <c r="L23">
-        <v>1.025677222369462</v>
+        <v>1.063102344700493</v>
       </c>
       <c r="M23">
-        <v>1.026054834975971</v>
+        <v>1.071345963906492</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009249618995099</v>
+        <v>1.055888593791706</v>
       </c>
       <c r="D24">
-        <v>1.025625054068951</v>
+        <v>1.054475165573181</v>
       </c>
       <c r="E24">
-        <v>1.020285197994174</v>
+        <v>1.061302051964834</v>
       </c>
       <c r="F24">
-        <v>1.02185637351363</v>
+        <v>1.0698270354555</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051092493529249</v>
+        <v>1.049954247180501</v>
       </c>
       <c r="J24">
-        <v>1.036396203478811</v>
+        <v>1.061947316483723</v>
       </c>
       <c r="K24">
-        <v>1.039216628322547</v>
+        <v>1.057781996270579</v>
       </c>
       <c r="L24">
-        <v>1.033965207511555</v>
+        <v>1.064586129301717</v>
       </c>
       <c r="M24">
-        <v>1.035510238661069</v>
+        <v>1.073083146764971</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.021287184653324</v>
+        <v>1.058090097352471</v>
       </c>
       <c r="D25">
-        <v>1.03473937168391</v>
+        <v>1.0561530150182</v>
       </c>
       <c r="E25">
-        <v>1.030914498018129</v>
+        <v>1.063334731977655</v>
       </c>
       <c r="F25">
-        <v>1.033796590175908</v>
+        <v>1.072153308375986</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056132500851643</v>
+        <v>1.050715633650705</v>
       </c>
       <c r="J25">
-        <v>1.045118790147916</v>
+        <v>1.063551953368841</v>
       </c>
       <c r="K25">
-        <v>1.046821318876787</v>
+        <v>1.059142924953881</v>
       </c>
       <c r="L25">
-        <v>1.043051138948133</v>
+        <v>1.066303169535267</v>
       </c>
       <c r="M25">
-        <v>1.045891971103427</v>
+        <v>1.075095807636302</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_214/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_214/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.059843338016958</v>
+        <v>1.030396451540559</v>
       </c>
       <c r="D2">
-        <v>1.057488595582969</v>
+        <v>1.041648530211702</v>
       </c>
       <c r="E2">
-        <v>1.064954358630998</v>
+        <v>1.038980066986587</v>
       </c>
       <c r="F2">
-        <v>1.074008256550537</v>
+        <v>1.042862977473462</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051316569052303</v>
+        <v>1.059905093463365</v>
       </c>
       <c r="J2">
-        <v>1.064827267394267</v>
+        <v>1.051704521781316</v>
       </c>
       <c r="K2">
-        <v>1.060223427134904</v>
+        <v>1.052556597052647</v>
       </c>
       <c r="L2">
-        <v>1.067668902807052</v>
+        <v>1.049921799421254</v>
       </c>
       <c r="M2">
-        <v>1.076698606907402</v>
+        <v>1.053755793864253</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061114870383562</v>
+        <v>1.036756544656981</v>
       </c>
       <c r="D3">
-        <v>1.05845684050984</v>
+        <v>1.046477676023528</v>
       </c>
       <c r="E3">
-        <v>1.06612946171137</v>
+        <v>1.044622786287972</v>
       </c>
       <c r="F3">
-        <v>1.075354904110726</v>
+        <v>1.049209933056126</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051749249178972</v>
+        <v>1.062514235656357</v>
       </c>
       <c r="J3">
-        <v>1.065750676083209</v>
+        <v>1.056292985244357</v>
       </c>
       <c r="K3">
-        <v>1.061005126035141</v>
+        <v>1.056548495855979</v>
       </c>
       <c r="L3">
-        <v>1.068658410990062</v>
+        <v>1.054714853968665</v>
       </c>
       <c r="M3">
-        <v>1.077860996936937</v>
+        <v>1.059249623495372</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.06193697830824</v>
+        <v>1.04076351918622</v>
       </c>
       <c r="D4">
-        <v>1.059082677099288</v>
+        <v>1.049521988596833</v>
       </c>
       <c r="E4">
-        <v>1.066889439369922</v>
+        <v>1.048182645200003</v>
       </c>
       <c r="F4">
-        <v>1.076226201130028</v>
+        <v>1.053216117632808</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052027541051118</v>
+        <v>1.064146228055801</v>
       </c>
       <c r="J4">
-        <v>1.066347004910497</v>
+        <v>1.059178999307433</v>
       </c>
       <c r="K4">
-        <v>1.061509636208021</v>
+        <v>1.059057323529331</v>
       </c>
       <c r="L4">
-        <v>1.069297718326627</v>
+        <v>1.057732350690605</v>
       </c>
       <c r="M4">
-        <v>1.078612520720357</v>
+        <v>1.062712048065306</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.062282438033622</v>
+        <v>1.042423337916979</v>
       </c>
       <c r="D5">
-        <v>1.059345617109902</v>
+        <v>1.050783415160588</v>
       </c>
       <c r="E5">
-        <v>1.067208842431638</v>
+        <v>1.049658361387204</v>
       </c>
       <c r="F5">
-        <v>1.076592479655904</v>
+        <v>1.054877367460308</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052144133647642</v>
+        <v>1.064819372888597</v>
       </c>
       <c r="J5">
-        <v>1.066597421605677</v>
+        <v>1.060373282978868</v>
       </c>
       <c r="K5">
-        <v>1.061721422496387</v>
+        <v>1.060095034963739</v>
       </c>
       <c r="L5">
-        <v>1.069566253022882</v>
+        <v>1.058981715931896</v>
       </c>
       <c r="M5">
-        <v>1.0789283154603</v>
+        <v>1.064146543538518</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.062340433278001</v>
+        <v>1.042700614162531</v>
       </c>
       <c r="D6">
-        <v>1.059389756463154</v>
+        <v>1.050994159058913</v>
       </c>
       <c r="E6">
-        <v>1.067262466313841</v>
+        <v>1.049904946491569</v>
       </c>
       <c r="F6">
-        <v>1.076653978654047</v>
+        <v>1.055154985112495</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052163686558266</v>
+        <v>1.064931652583144</v>
       </c>
       <c r="J6">
-        <v>1.066639451317128</v>
+        <v>1.060572718956635</v>
       </c>
       <c r="K6">
-        <v>1.061756964230511</v>
+        <v>1.060268295620382</v>
       </c>
       <c r="L6">
-        <v>1.069611327751986</v>
+        <v>1.059190389605</v>
       </c>
       <c r="M6">
-        <v>1.078981330310139</v>
+        <v>1.064386192353913</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.061941594960865</v>
+        <v>1.040785793289485</v>
       </c>
       <c r="D7">
-        <v>1.05908619114977</v>
+        <v>1.049538915052828</v>
       </c>
       <c r="E7">
-        <v>1.066893707605931</v>
+        <v>1.04820244441122</v>
       </c>
       <c r="F7">
-        <v>1.07623109541583</v>
+        <v>1.053238404034469</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05202910054253</v>
+        <v>1.064155272836312</v>
       </c>
       <c r="J7">
-        <v>1.066350352087946</v>
+        <v>1.059195030908235</v>
       </c>
       <c r="K7">
-        <v>1.061512467321866</v>
+        <v>1.059071255306551</v>
       </c>
       <c r="L7">
-        <v>1.069301307401735</v>
+        <v>1.057749119027058</v>
       </c>
       <c r="M7">
-        <v>1.078616740954963</v>
+        <v>1.062731297499638</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.060273196622991</v>
+        <v>1.032569104441676</v>
       </c>
       <c r="D8">
-        <v>1.057815960874312</v>
+        <v>1.043297762104195</v>
       </c>
       <c r="E8">
-        <v>1.06535157298568</v>
+        <v>1.040906605372787</v>
       </c>
       <c r="F8">
-        <v>1.074463379512884</v>
+        <v>1.045029541695409</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051463144105224</v>
+        <v>1.060798854908275</v>
       </c>
       <c r="J8">
-        <v>1.0651395829654</v>
+        <v>1.053272956263644</v>
       </c>
       <c r="K8">
-        <v>1.060487876428536</v>
+        <v>1.053921517968324</v>
       </c>
       <c r="L8">
-        <v>1.068003514067316</v>
+        <v>1.051559576768553</v>
       </c>
       <c r="M8">
-        <v>1.077091572086987</v>
+        <v>1.055632242110969</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.057328077904753</v>
+        <v>1.017198839513467</v>
       </c>
       <c r="D9">
-        <v>1.055572346752933</v>
+        <v>1.031641682310855</v>
       </c>
       <c r="E9">
-        <v>1.062631017901788</v>
+        <v>1.027300745127885</v>
       </c>
       <c r="F9">
-        <v>1.071347737967044</v>
+        <v>1.029736263579961</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050452929421842</v>
+        <v>1.054427188677805</v>
       </c>
       <c r="J9">
-        <v>1.062996931572489</v>
+        <v>1.042158545986641</v>
       </c>
       <c r="K9">
-        <v>1.058672371640558</v>
+        <v>1.044241438392734</v>
       </c>
       <c r="L9">
-        <v>1.065709100971358</v>
+        <v>1.039965888336193</v>
       </c>
       <c r="M9">
-        <v>1.074399160397426</v>
+        <v>1.04236463437452</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055360974121484</v>
+        <v>1.006258653725949</v>
       </c>
       <c r="D10">
-        <v>1.054072925017169</v>
+        <v>1.023363589352108</v>
       </c>
       <c r="E10">
-        <v>1.060815063024425</v>
+        <v>1.017649259158519</v>
       </c>
       <c r="F10">
-        <v>1.069269983939147</v>
+        <v>1.018896426165715</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049770687611688</v>
+        <v>1.049831862164005</v>
       </c>
       <c r="J10">
-        <v>1.061562227159309</v>
+        <v>1.034226137990454</v>
       </c>
       <c r="K10">
-        <v>1.057455170018462</v>
+        <v>1.037323442315231</v>
       </c>
       <c r="L10">
-        <v>1.064174281820859</v>
+        <v>1.031706998626003</v>
       </c>
       <c r="M10">
-        <v>1.072600777576274</v>
+        <v>1.032932680559928</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.05450827505</v>
+        <v>1.001333031473733</v>
       </c>
       <c r="D11">
-        <v>1.053422760687493</v>
+        <v>1.019642317475675</v>
       </c>
       <c r="E11">
-        <v>1.06002816511083</v>
+        <v>1.013312749333291</v>
       </c>
       <c r="F11">
-        <v>1.068370094349854</v>
+        <v>1.014027599546943</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049473173482858</v>
+        <v>1.047749400287667</v>
       </c>
       <c r="J11">
-        <v>1.060939465915978</v>
+        <v>1.030650459735034</v>
       </c>
       <c r="K11">
-        <v>1.056926454525801</v>
+        <v>1.034203077581572</v>
       </c>
       <c r="L11">
-        <v>1.063508419673575</v>
+        <v>1.027987899105606</v>
       </c>
       <c r="M11">
-        <v>1.07182120363285</v>
+        <v>1.028689737277627</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054191400859504</v>
+        <v>0.9994728192033099</v>
       </c>
       <c r="D12">
-        <v>1.053181122469866</v>
+        <v>1.01823794314952</v>
       </c>
       <c r="E12">
-        <v>1.059735786291482</v>
+        <v>1.011676462219409</v>
       </c>
       <c r="F12">
-        <v>1.068035800214284</v>
+        <v>1.012190657641983</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049362346626016</v>
+        <v>1.04696098136933</v>
       </c>
       <c r="J12">
-        <v>1.060707912804527</v>
+        <v>1.029299507037193</v>
       </c>
       <c r="K12">
-        <v>1.056729814501057</v>
+        <v>1.033023880075165</v>
       </c>
       <c r="L12">
-        <v>1.063260894317549</v>
+        <v>1.026583327293781</v>
       </c>
       <c r="M12">
-        <v>1.071531502242106</v>
+        <v>1.027087972248981</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054259378020875</v>
+        <v>0.999873266299084</v>
       </c>
       <c r="D13">
-        <v>1.053232960980351</v>
+        <v>1.018540214695606</v>
       </c>
       <c r="E13">
-        <v>1.059798506659345</v>
+        <v>1.012028638228637</v>
       </c>
       <c r="F13">
-        <v>1.068107509088996</v>
+        <v>1.012586011833944</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049386133726242</v>
+        <v>1.047130791034913</v>
       </c>
       <c r="J13">
-        <v>1.06075759226973</v>
+        <v>1.02959035002929</v>
       </c>
       <c r="K13">
-        <v>1.056772005873751</v>
+        <v>1.033277758156268</v>
       </c>
       <c r="L13">
-        <v>1.06331399819526</v>
+        <v>1.026885688072571</v>
       </c>
       <c r="M13">
-        <v>1.071593650242806</v>
+        <v>1.027432753839406</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054482085087259</v>
+        <v>1.001179904545532</v>
       </c>
       <c r="D14">
-        <v>1.053402789630371</v>
+        <v>1.01952669257148</v>
       </c>
       <c r="E14">
-        <v>1.060003998838502</v>
+        <v>1.013178025364229</v>
       </c>
       <c r="F14">
-        <v>1.068342462229673</v>
+        <v>1.013876350750499</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049464018973031</v>
+        <v>1.047684539324426</v>
       </c>
       <c r="J14">
-        <v>1.060920330409481</v>
+        <v>1.030539264385944</v>
       </c>
       <c r="K14">
-        <v>1.056910205344775</v>
+        <v>1.034106024544388</v>
       </c>
       <c r="L14">
-        <v>1.063487963135148</v>
+        <v>1.027872278874159</v>
       </c>
       <c r="M14">
-        <v>1.071797259556504</v>
+        <v>1.028557871717255</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.054619283086457</v>
+        <v>1.001980837252829</v>
       </c>
       <c r="D15">
-        <v>1.053507408280012</v>
+        <v>1.02013151197581</v>
       </c>
       <c r="E15">
-        <v>1.060130597345738</v>
+        <v>1.013882760365317</v>
       </c>
       <c r="F15">
-        <v>1.068487219853426</v>
+        <v>1.014667534402012</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04951196461108</v>
+        <v>1.048023716465195</v>
       </c>
       <c r="J15">
-        <v>1.061020567941766</v>
+        <v>1.031120851008788</v>
       </c>
       <c r="K15">
-        <v>1.056995321198873</v>
+        <v>1.034613631587775</v>
       </c>
       <c r="L15">
-        <v>1.063595122815064</v>
+        <v>1.028477032152757</v>
       </c>
       <c r="M15">
-        <v>1.071922692260883</v>
+        <v>1.029247622509177</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.055417545008493</v>
+        <v>1.006581389569218</v>
       </c>
       <c r="D16">
-        <v>1.054116055023059</v>
+        <v>1.023607544926886</v>
       </c>
       <c r="E16">
-        <v>1.060867274413096</v>
+        <v>1.017933588336009</v>
       </c>
       <c r="F16">
-        <v>1.069329701935845</v>
+        <v>1.019215687763729</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049790388292821</v>
+        <v>1.049968034905912</v>
       </c>
       <c r="J16">
-        <v>1.06160352541008</v>
+        <v>1.034460341227076</v>
       </c>
       <c r="K16">
-        <v>1.057490223973507</v>
+        <v>1.037527784437196</v>
       </c>
       <c r="L16">
-        <v>1.064218445781365</v>
+        <v>1.031950673876369</v>
       </c>
       <c r="M16">
-        <v>1.072652496876571</v>
+        <v>1.033210767907298</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.055918021743466</v>
+        <v>1.009415190887487</v>
       </c>
       <c r="D17">
-        <v>1.054497599179297</v>
+        <v>1.025750281475268</v>
       </c>
       <c r="E17">
-        <v>1.061329215657172</v>
+        <v>1.020431176054667</v>
       </c>
       <c r="F17">
-        <v>1.069858110242154</v>
+        <v>1.022020305979559</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049964473097653</v>
+        <v>1.051162188527033</v>
       </c>
       <c r="J17">
-        <v>1.061968789047269</v>
+        <v>1.03651630412071</v>
       </c>
       <c r="K17">
-        <v>1.057800217598442</v>
+        <v>1.039321392249579</v>
       </c>
       <c r="L17">
-        <v>1.064609096322195</v>
+        <v>1.034090211406886</v>
       </c>
       <c r="M17">
-        <v>1.073110050792981</v>
+        <v>1.035652949667083</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056209851884328</v>
+        <v>1.011050084885956</v>
       </c>
       <c r="D18">
-        <v>1.05472006028493</v>
+        <v>1.026987018757024</v>
       </c>
       <c r="E18">
-        <v>1.06159860266589</v>
+        <v>1.021872931096983</v>
       </c>
       <c r="F18">
-        <v>1.070166302017517</v>
+        <v>1.023639452965664</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050065811407155</v>
+        <v>1.051849849682411</v>
       </c>
       <c r="J18">
-        <v>1.062181694218565</v>
+        <v>1.037702036437418</v>
       </c>
       <c r="K18">
-        <v>1.057980871705877</v>
+        <v>1.040355631559446</v>
       </c>
       <c r="L18">
-        <v>1.064836833320464</v>
+        <v>1.035324496079974</v>
       </c>
       <c r="M18">
-        <v>1.073376851279343</v>
+        <v>1.037062244024785</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056309343366603</v>
+        <v>1.011604551918484</v>
       </c>
       <c r="D19">
-        <v>1.054795899060567</v>
+        <v>1.027406539987266</v>
       </c>
       <c r="E19">
-        <v>1.061690447354272</v>
+        <v>1.022362034024384</v>
       </c>
       <c r="F19">
-        <v>1.070271384194959</v>
+        <v>1.024188762145618</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050100330865074</v>
+        <v>1.052082848197733</v>
       </c>
       <c r="J19">
-        <v>1.062254264541904</v>
+        <v>1.038104101137272</v>
       </c>
       <c r="K19">
-        <v>1.058042443029687</v>
+        <v>1.04070629506997</v>
       </c>
       <c r="L19">
-        <v>1.064914465000926</v>
+        <v>1.035743083838301</v>
       </c>
       <c r="M19">
-        <v>1.073467809378155</v>
+        <v>1.03754025461692</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.055864334611333</v>
+        <v>1.009113029995099</v>
       </c>
       <c r="D20">
-        <v>1.054456672133725</v>
+        <v>1.025521750388855</v>
       </c>
       <c r="E20">
-        <v>1.061279659498365</v>
+        <v>1.020164777677773</v>
       </c>
       <c r="F20">
-        <v>1.069801419113466</v>
+        <v>1.021721143125494</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049945816393657</v>
+        <v>1.051034991197772</v>
       </c>
       <c r="J20">
-        <v>1.06192961493448</v>
+        <v>1.036297123802255</v>
       </c>
       <c r="K20">
-        <v>1.057766974775885</v>
+        <v>1.039130199954073</v>
       </c>
       <c r="L20">
-        <v>1.064567195945603</v>
+        <v>1.033862084784509</v>
       </c>
       <c r="M20">
-        <v>1.07306096819575</v>
+        <v>1.035392510705895</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054416507408871</v>
+        <v>1.000795997099737</v>
       </c>
       <c r="D21">
-        <v>1.053352783160342</v>
+        <v>1.019236823766964</v>
       </c>
       <c r="E21">
-        <v>1.059943489020393</v>
+        <v>1.012840279878602</v>
       </c>
       <c r="F21">
-        <v>1.068273275384354</v>
+        <v>1.013497181571271</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049441092468312</v>
+        <v>1.04752189395865</v>
       </c>
       <c r="J21">
-        <v>1.060872414506236</v>
+        <v>1.030260475659719</v>
       </c>
       <c r="K21">
-        <v>1.056869516007457</v>
+        <v>1.033862689126953</v>
       </c>
       <c r="L21">
-        <v>1.063436740189035</v>
+        <v>1.027582405247802</v>
       </c>
       <c r="M21">
-        <v>1.071737305384714</v>
+        <v>1.028227279423751</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05350536705057</v>
+        <v>0.9953882755089419</v>
       </c>
       <c r="D22">
-        <v>1.052657923405978</v>
+        <v>1.01515630597654</v>
       </c>
       <c r="E22">
-        <v>1.059102863924543</v>
+        <v>1.008086378883062</v>
       </c>
       <c r="F22">
-        <v>1.067312265963712</v>
+        <v>1.008160655891479</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049121918476127</v>
+        <v>1.045226299346378</v>
       </c>
       <c r="J22">
-        <v>1.060206367797923</v>
+        <v>1.02633222475933</v>
       </c>
       <c r="K22">
-        <v>1.05630379153409</v>
+        <v>1.030433376432806</v>
       </c>
       <c r="L22">
-        <v>1.062724850983606</v>
+        <v>1.023499327250712</v>
       </c>
       <c r="M22">
-        <v>1.070904295343448</v>
+        <v>1.023572163734742</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.053988460194385</v>
+        <v>0.9982727658962836</v>
       </c>
       <c r="D23">
-        <v>1.053026358398878</v>
+        <v>1.017332258517015</v>
       </c>
       <c r="E23">
-        <v>1.059548545693479</v>
+        <v>1.010621286622996</v>
       </c>
       <c r="F23">
-        <v>1.067821735914489</v>
+        <v>1.011006139802807</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049291293002798</v>
+        <v>1.046451817817388</v>
       </c>
       <c r="J23">
-        <v>1.060559579975782</v>
+        <v>1.028427837745437</v>
       </c>
       <c r="K23">
-        <v>1.056603831606476</v>
+        <v>1.032262958536743</v>
       </c>
       <c r="L23">
-        <v>1.063102344700493</v>
+        <v>1.025677222369461</v>
       </c>
       <c r="M23">
-        <v>1.071345963906492</v>
+        <v>1.02605483497597</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.055888593791706</v>
+        <v>1.0092496189951</v>
       </c>
       <c r="D24">
-        <v>1.054475165573181</v>
+        <v>1.025625054068951</v>
       </c>
       <c r="E24">
-        <v>1.061302051964834</v>
+        <v>1.020285197994175</v>
       </c>
       <c r="F24">
-        <v>1.0698270354555</v>
+        <v>1.021856373513631</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049954247180501</v>
+        <v>1.05109249352925</v>
       </c>
       <c r="J24">
-        <v>1.061947316483723</v>
+        <v>1.036396203478812</v>
       </c>
       <c r="K24">
-        <v>1.057781996270579</v>
+        <v>1.039216628322548</v>
       </c>
       <c r="L24">
-        <v>1.064586129301717</v>
+        <v>1.033965207511556</v>
       </c>
       <c r="M24">
-        <v>1.073083146764971</v>
+        <v>1.03551023866107</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.058090097352471</v>
+        <v>1.021287184653323</v>
       </c>
       <c r="D25">
-        <v>1.0561530150182</v>
+        <v>1.034739371683909</v>
       </c>
       <c r="E25">
-        <v>1.063334731977655</v>
+        <v>1.030914498018128</v>
       </c>
       <c r="F25">
-        <v>1.072153308375986</v>
+        <v>1.033796590175907</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050715633650705</v>
+        <v>1.056132500851643</v>
       </c>
       <c r="J25">
-        <v>1.063551953368841</v>
+        <v>1.045118790147914</v>
       </c>
       <c r="K25">
-        <v>1.059142924953881</v>
+        <v>1.046821318876787</v>
       </c>
       <c r="L25">
-        <v>1.066303169535267</v>
+        <v>1.043051138948133</v>
       </c>
       <c r="M25">
-        <v>1.075095807636302</v>
+        <v>1.045891971103427</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
